--- a/Resource/GitFile.xlsx
+++ b/Resource/GitFile.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,24 +11,30 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Amol</t>
   </si>
   <si>
     <t>Chandu</t>
   </si>
+  <si>
+    <t>saurab</t>
+  </si>
+  <si>
+    <t>Azhar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +154,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -359,23 +363,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -384,24 +398,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
